--- a/docs/ValueSet-JustificationForLabOrderVS.xlsx
+++ b/docs/ValueSet-JustificationForLabOrderVS.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from CodeSystem_ Labo" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-16T14:48:05+03:00</t>
+    <t>2024-11-27T16:57:00+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
